--- a/biology/Botanique/Barringtonia_neocaledonica/Barringtonia_neocaledonica.xlsx
+++ b/biology/Botanique/Barringtonia_neocaledonica/Barringtonia_neocaledonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barringtonia neocaledonica est une espèce de plantes à fleurs de la famille des Lecythidaceae. Endémique, on ne la trouve qu'en Nouvelle-Calédonie.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Cette espèce se présente comme un arbre à port arrondi, atteignant à maturité de 5 à 12 mètres de haut et de 3 à 7 mètres de large[2].
-Feuilles
-Les feuilles, de 30 centimètres de long et de 12 centimètres de large, sont simples, alternes, décurrentes, d'un vert brillant, regroupées en bout de branches. Les jeunes pousses sont roses. Le feuillage est assez dense et caduc. En saison sèche, avant la floraison, le feuillage peut rougir avant de tomber[2],[3].
-Fleurs
-Les fleurs sont d'un blanc rosé, avec de nombreuses étamines. Elles sont regroupées sur des épis pendants, dont la longueur peut dépasser les 50 centimètres[2],[3].
-Fruits
-Les fruits sont cylindriques, verts, tomenteux ou pulvérulents. Ils sont positionnés sur les épis[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se présente comme un arbre à port arrondi, atteignant à maturité de 5 à 12 mètres de haut et de 3 à 7 mètres de large.
 </t>
         </is>
       </c>
@@ -546,12 +557,125 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles, de 30 centimètres de long et de 12 centimètres de large, sont simples, alternes, décurrentes, d'un vert brillant, regroupées en bout de branches. Les jeunes pousses sont roses. Le feuillage est assez dense et caduc. En saison sèche, avant la floraison, le feuillage peut rougir avant de tomber,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barringtonia_neocaledonica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barringtonia_neocaledonica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont d'un blanc rosé, avec de nombreuses étamines. Elles sont regroupées sur des épis pendants, dont la longueur peut dépasser les 50 centimètres,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barringtonia_neocaledonica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barringtonia_neocaledonica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont cylindriques, verts, tomenteux ou pulvérulents. Ils sont positionnés sur les épis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Barringtonia_neocaledonica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barringtonia_neocaledonica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se retrouve dans les zones humides et les bords de rivières. Elle apprécie les terrains ultra basiques et siliceux[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se retrouve dans les zones humides et les bords de rivières. Elle apprécie les terrains ultra basiques et siliceux.
 </t>
         </is>
       </c>
